--- a/Journal de bord.xlsx
+++ b/Journal de bord.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\github Repository\Repository\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,66 +24,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t xml:space="preserve">Journal de travail BN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Création JDT BN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creation JDB BN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">début Maquette BN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Création et Paramétrage GitTub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fin maquette</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Journal de travail BN</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Création JDT BN</t>
+  </si>
+  <si>
+    <t>Creation JDB BN</t>
+  </si>
+  <si>
+    <t>début Maquette BN</t>
+  </si>
+  <si>
+    <t>Création et Paramétrage GitTub</t>
+  </si>
+  <si>
+    <t>Fin maquette</t>
   </si>
   <si>
     <t xml:space="preserve"> Création Scénario Bataille Naval</t>
   </si>
   <si>
-    <t xml:space="preserve">Création fonction jeu et aide code BN</t>
+    <t>Création fonction jeu et aide code BN</t>
+  </si>
+  <si>
+    <t>fin projet BN</t>
+  </si>
+  <si>
+    <t>fin code BN</t>
+  </si>
+  <si>
+    <t>fin documentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$-100C]DD/MM/YYYY"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-100C]dd/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -109,149 +106,166 @@
     </fill>
   </fills>
   <borders count="9">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="medium"/>
-      <top style="hair"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="medium"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="medium"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
-      <top style="thin"/>
-      <bottom style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -310,29 +324,303 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.08"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -340,182 +628,192 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="4">
         <v>43894</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="4">
         <v>43894</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="4">
         <v>43894</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="4">
         <v>43894</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="4">
         <v>43896</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:2" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6" t="n">
+      <c r="B7" s="6">
         <v>43901</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7" t="n">
+      <c r="B8" s="7">
         <v>43907</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5"/>
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5"/>
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5"/>
-      <c r="B11" s="8"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="11">
+        <v>43930</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11">
+        <v>43930</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="8"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="8"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="8"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="8"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="8"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="8"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="8"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="8"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="8"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="8"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="8"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="8"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="8"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="8"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="8"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="8"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="8"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="8"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="8"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="8"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="8"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="8"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="8"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="8"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="8"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>